--- a/DatabaseExport/HolidaySchedule.xlsx
+++ b/DatabaseExport/HolidaySchedule.xlsx
@@ -1,28 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1089985\Documents\SchedulerData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5F14B5-66F1-4935-8B90-050CAFB66BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="1950" yWindow="1080" windowWidth="21600" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="HolidaySchedule"/>
+    <sheet name="HolidaySchedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="HolidaySchedule">'HolidaySchedule'!$A$1:$D$53</definedName>
+    <definedName name="HolidaySchedule">HolidaySchedule!$A$1:$D$53</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="16">
+  <si>
+    <t>hYear</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>ActualDate</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Raytheon</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -47,11 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -59,6 +117,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -105,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -137,9 +203,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,6 +255,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -346,968 +448,755 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>hYear</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>ActualDate</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>43466</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2019</v>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>H10</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>43824</v>
       </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2019</v>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>43486</v>
       </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2019</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>43514</v>
       </c>
     </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2019</v>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>H4</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <v>43612</v>
       </c>
     </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="0">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2019</v>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>H5</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>43650</v>
       </c>
     </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="0">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2019</v>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>H6</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>43710</v>
       </c>
     </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="0">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2019</v>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>43752</v>
       </c>
     </row>
-    <row outlineLevel="0" r="10">
-      <c r="A10" s="0">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2019</v>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>H8</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="1">
         <v>43780</v>
       </c>
     </row>
-    <row outlineLevel="0" r="11">
-      <c r="A11" s="0">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2019</v>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>H9</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>43797</v>
       </c>
     </row>
-    <row outlineLevel="0" r="12">
-      <c r="A12" s="0">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
       </c>
       <c r="D12" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row outlineLevel="0" r="13">
-      <c r="A13" s="0">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2020</v>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>H10</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>44190</v>
       </c>
     </row>
-    <row outlineLevel="0" r="14">
-      <c r="A14" s="0">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2020</v>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
       <c r="D14" s="1">
         <v>43850</v>
       </c>
     </row>
-    <row outlineLevel="0" r="15">
-      <c r="A15" s="0">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2020</v>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
       <c r="D15" s="1">
         <v>43878</v>
       </c>
     </row>
-    <row outlineLevel="0" r="16">
-      <c r="A16" s="0">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2020</v>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>H4</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
       </c>
       <c r="D16" s="1">
         <v>43976</v>
       </c>
     </row>
-    <row outlineLevel="0" r="17">
-      <c r="A17" s="0">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2020</v>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>H5</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
       </c>
       <c r="D17" s="1">
         <v>44016</v>
       </c>
     </row>
-    <row outlineLevel="0" r="18">
-      <c r="A18" s="0">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2020</v>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>H6</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
       </c>
       <c r="D18" s="1">
         <v>44081</v>
       </c>
     </row>
-    <row outlineLevel="0" r="19">
-      <c r="A19" s="0">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2020</v>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
       </c>
       <c r="D19" s="1">
         <v>44116</v>
       </c>
     </row>
-    <row outlineLevel="0" r="20">
-      <c r="A20" s="0">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2020</v>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>H8</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
       </c>
       <c r="D20" s="1">
         <v>44146</v>
       </c>
     </row>
-    <row outlineLevel="0" r="21">
-      <c r="A21" s="0">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>2020</v>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>H9</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
       </c>
       <c r="D21" s="1">
         <v>44161</v>
       </c>
     </row>
-    <row outlineLevel="0" r="22">
-      <c r="A22" s="0">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>2021</v>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
       <c r="D22" s="1">
         <v>44197</v>
       </c>
     </row>
-    <row outlineLevel="0" r="23">
-      <c r="A23" s="0">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>2021</v>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>H10</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
       </c>
       <c r="D23" s="1">
         <v>44555</v>
       </c>
     </row>
-    <row outlineLevel="0" r="24">
-      <c r="A24" s="0">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>2021</v>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
       </c>
       <c r="D24" s="1">
         <v>44214</v>
       </c>
     </row>
-    <row outlineLevel="0" r="25">
-      <c r="A25" s="0">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>2021</v>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
       </c>
       <c r="D25" s="1">
         <v>44242</v>
       </c>
     </row>
-    <row outlineLevel="0" r="26">
-      <c r="A26" s="0">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>2021</v>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>H4</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
       </c>
       <c r="D26" s="1">
         <v>44347</v>
       </c>
     </row>
-    <row outlineLevel="0" r="27">
-      <c r="A27" s="0">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>2021</v>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>H5</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="1">
         <v>44381</v>
       </c>
     </row>
-    <row outlineLevel="0" r="28">
-      <c r="A28" s="0">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2021</v>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>H6</t>
-        </is>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
       </c>
       <c r="D28" s="1">
         <v>44445</v>
       </c>
     </row>
-    <row outlineLevel="0" r="29">
-      <c r="A29" s="0">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>2021</v>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
       </c>
       <c r="D29" s="1">
         <v>44480</v>
       </c>
     </row>
-    <row outlineLevel="0" r="30">
-      <c r="A30" s="0">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2021</v>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>H8</t>
-        </is>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
       </c>
       <c r="D30" s="1">
         <v>44511</v>
       </c>
     </row>
-    <row outlineLevel="0" r="31">
-      <c r="A31" s="0">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2021</v>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>H9</t>
-        </is>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
       </c>
       <c r="D31" s="1">
         <v>44525</v>
       </c>
     </row>
-    <row outlineLevel="0" r="32">
-      <c r="A32" s="0">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>2022</v>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
       </c>
       <c r="D32" s="1">
         <v>44562</v>
       </c>
     </row>
-    <row outlineLevel="0" r="33">
-      <c r="A33" s="0">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>2022</v>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>H10</t>
-        </is>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
       </c>
       <c r="D33" s="1">
         <v>44889</v>
       </c>
     </row>
-    <row outlineLevel="0" r="34">
-      <c r="A34" s="0">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>2022</v>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>H11</t>
-        </is>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
       </c>
       <c r="D34" s="1">
         <v>44920</v>
       </c>
     </row>
-    <row outlineLevel="0" r="35">
-      <c r="A35" s="0">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>2022</v>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>44578</v>
       </c>
     </row>
-    <row outlineLevel="0" r="36">
-      <c r="A36" s="0">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2022</v>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
       </c>
       <c r="D36" s="1">
         <v>44613</v>
       </c>
     </row>
-    <row outlineLevel="0" r="37">
-      <c r="A37" s="0">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2022</v>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>H4</t>
-        </is>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
       </c>
       <c r="D37" s="1">
         <v>44711</v>
       </c>
     </row>
-    <row outlineLevel="0" r="38">
-      <c r="A38" s="0">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>2022</v>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>H5</t>
-        </is>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
       </c>
       <c r="D38" s="1">
         <v>44731</v>
       </c>
     </row>
-    <row outlineLevel="0" r="39">
-      <c r="A39" s="0">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>2022</v>
       </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t>H6</t>
-        </is>
-      </c>
-      <c r="C39" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
       </c>
       <c r="D39" s="1">
         <v>44746</v>
       </c>
     </row>
-    <row outlineLevel="0" r="40">
-      <c r="A40" s="0">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>2022</v>
       </c>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C40" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
       </c>
       <c r="D40" s="1">
         <v>44809</v>
       </c>
     </row>
-    <row outlineLevel="0" r="41">
-      <c r="A41" s="0">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>2022</v>
       </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>H8</t>
-        </is>
-      </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
       </c>
       <c r="D41" s="1">
         <v>44844</v>
       </c>
     </row>
-    <row outlineLevel="0" r="42">
-      <c r="A42" s="0">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>2022</v>
       </c>
-      <c r="B42" s="0" t="inlineStr">
-        <is>
-          <t>H9</t>
-        </is>
-      </c>
-      <c r="C42" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
       </c>
       <c r="D42" s="1">
         <v>44876</v>
       </c>
     </row>
-    <row outlineLevel="0" r="43">
-      <c r="A43" s="0">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>2023</v>
       </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
       </c>
       <c r="D43" s="1">
         <v>44927</v>
       </c>
     </row>
-    <row outlineLevel="0" r="44">
-      <c r="A44" s="0">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>2023</v>
       </c>
-      <c r="B44" s="0" t="inlineStr">
-        <is>
-          <t>H10</t>
-        </is>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
       </c>
       <c r="D44" s="1">
         <v>45253</v>
       </c>
     </row>
-    <row outlineLevel="0" r="45">
-      <c r="A45" s="0">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>2023</v>
       </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>H11</t>
-        </is>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
       </c>
       <c r="D45" s="1">
         <v>45285</v>
       </c>
     </row>
-    <row outlineLevel="0" r="46">
-      <c r="A46" s="0">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>2023</v>
       </c>
-      <c r="B46" s="0" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-      <c r="C46" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
       </c>
       <c r="D46" s="1">
         <v>44942</v>
       </c>
     </row>
-    <row outlineLevel="0" r="47">
-      <c r="A47" s="0">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>2023</v>
       </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>H3</t>
-        </is>
-      </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
       </c>
       <c r="D47" s="1">
         <v>44977</v>
       </c>
     </row>
-    <row outlineLevel="0" r="48">
-      <c r="A48" s="0">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>2023</v>
       </c>
-      <c r="B48" s="0" t="inlineStr">
-        <is>
-          <t>H4</t>
-        </is>
-      </c>
-      <c r="C48" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
       </c>
       <c r="D48" s="1">
         <v>45075</v>
       </c>
     </row>
-    <row outlineLevel="0" r="49">
-      <c r="A49" s="0">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>2023</v>
       </c>
-      <c r="B49" s="0" t="inlineStr">
-        <is>
-          <t>H5</t>
-        </is>
-      </c>
-      <c r="C49" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
       </c>
       <c r="D49" s="1">
         <v>45096</v>
       </c>
     </row>
-    <row outlineLevel="0" r="50">
-      <c r="A50" s="0">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>2023</v>
       </c>
-      <c r="B50" s="0" t="inlineStr">
-        <is>
-          <t>H6</t>
-        </is>
-      </c>
-      <c r="C50" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
       </c>
       <c r="D50" s="1">
         <v>45111</v>
       </c>
     </row>
-    <row outlineLevel="0" r="51">
-      <c r="A51" s="0">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>2023</v>
       </c>
-      <c r="B51" s="0" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C51" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
       </c>
       <c r="D51" s="1">
         <v>45173</v>
       </c>
     </row>
-    <row outlineLevel="0" r="52">
-      <c r="A52" s="0">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>2023</v>
       </c>
-      <c r="B52" s="0" t="inlineStr">
-        <is>
-          <t>H8</t>
-        </is>
-      </c>
-      <c r="C52" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
       </c>
       <c r="D52" s="1">
         <v>45208</v>
       </c>
     </row>
-    <row outlineLevel="0" r="53">
-      <c r="A53" s="0">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>2023</v>
       </c>
-      <c r="B53" s="0" t="inlineStr">
-        <is>
-          <t>H9</t>
-        </is>
-      </c>
-      <c r="C53" s="0" t="inlineStr">
-        <is>
-          <t>Raytheon</t>
-        </is>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
       </c>
       <c r="D53" s="1">
         <v>45240</v>
@@ -1315,5 +1204,45 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</oddHeader>
+    <evenHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</evenHeader>
+    <firstHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</firstHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJjZGU1M2FjMS1iZjVmLTRhYWUtOWNmMS0wNzUwOWUyM2E0YjAiIG9yaWdpbj0idXNlclNlbGVjdGVkIj48ZWxlbWVudCB1aWQ9ImRlY2VjYmQ2LWRhM2ItNDZmZS04ZjAwLWY5ZDlkZWVhMmVlMSIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjxlbGVtZW50IHVpZD0iYTRhOWYzODItOGNlYy00MGJiLWE5YzMtYzE4NzZkZWQ5ZGVlIiB2YWx1ZT0iIiB4bWxucz0iaHR0cDovL3d3dy5ib2xkb25qYW1lcy5jb20vMjAwOC8wMS9zaWUvaW50ZXJuYWwvbGFiZWwiIC8+PGVsZW1lbnQgdWlkPSJiYmE5NGM2NS1hYzNkLTRmMzQtYjJlMS04ZGUxMWVmNmYwMWMiIHZhbHVlPSIiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDA4LzAxL3NpZS9pbnRlcm5hbC9sYWJlbCIgLz48ZWxlbWVudCB1aWQ9ImJjMmI3YzAxLTZkYjEtNGU3ZC04OGQxLWZjNjE2NzRmODZmZCIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjxlbGVtZW50IHVpZD0iOTJlOTkzYTMtYWYzMi00YWZiLWFhMTktM2E0OWNkYjgyYzdhIiB2YWx1ZT0iIiB4bWxucz0iaHR0cDovL3d3dy5ib2xkb25qYW1lcy5jb20vMjAwOC8wMS9zaWUvaW50ZXJuYWwvbGFiZWwiIC8+PC9zaXNsPjxVc2VyTmFtZT5VU1wxMDg5OTg1PC9Vc2VyTmFtZT48RGF0ZVRpbWU+NS8xLzIwMjMgOTo0MDowMyBQTTwvRGF0ZVRpbWU+PExhYmVsU3RyaW5nPk9yaWdpbiBKdXJpc2RpY3Rpb246IFVTIHwgVW5yZXN0cmljdGVkIENvbnRlbnQgfCBSYXl0aGVvbiBUZWNobm9sb2dpZXMgKENvcnBvcmF0ZSBPbmx5KSB8IE90aGVyIEluZm9ybWF0aW9uIChOb3QgUmVxdWlyaW5nIGFuIEV4cG9ydCBDb250cm9sIE1hcmtpbmcpIHwgTm8gbWFya2luZyBhcHBsaWVkIGJ5IHRoZSB0b29sPC9MYWJlbFN0cmluZz48L2l0ZW0+PC9sYWJlbEhpc3Rvcnk+</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="cde53ac1-bf5f-4aae-9cf1-07509e23a4b0" origin="userSelected">
+  <element uid="dececbd6-da3b-46fe-8f00-f9d9deea2ee1" value=""/>
+  <element uid="a4a9f382-8cec-40bb-a9c3-c1876ded9dee" value=""/>
+  <element uid="bba94c65-ac3d-4f34-b2e1-8de11ef6f01c" value=""/>
+  <element uid="bc2b7c01-6db1-4e7d-88d1-fc61674f86fd" value=""/>
+  <element uid="92e993a3-af32-4afb-aa19-3a49cdb82c7a" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF208068-2E30-46F5-93A0-9760BEABD7C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF1B47FC-05F5-4EED-A2EA-596DCB798930}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DatabaseExport/HolidaySchedule.xlsx
+++ b/DatabaseExport/HolidaySchedule.xlsx
@@ -1,87 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1089985\Documents\SchedulerData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5F14B5-66F1-4935-8B90-050CAFB66BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1080" windowWidth="21600" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet name="HolidaySchedule" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" r:id="rId1" name="HolidaySchedule"/>
   </sheets>
   <definedNames>
-    <definedName name="HolidaySchedule">HolidaySchedule!$A$1:$D$53</definedName>
+    <definedName name="HolidaySchedule">'HolidaySchedule'!$A$1:$D$53</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="16">
-  <si>
-    <t>hYear</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>ActualDate</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>Raytheon</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="MS Sans Serif"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -106,10 +47,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -117,14 +59,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -171,7 +105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,27 +137,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,24 +171,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,755 +346,968 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr autoPageBreaks="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row outlineLevel="0" r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>hYear</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>ActualDate</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0">
         <v>2019</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D2" s="1">
         <v>43466</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0">
         <v>2019</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>H10</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D3" s="1">
         <v>43824</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0">
         <v>2019</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D4" s="1">
         <v>43486</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0">
         <v>2019</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D5" s="1">
         <v>43514</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0">
         <v>2019</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D6" s="1">
         <v>43612</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0">
         <v>2019</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D7" s="1">
         <v>43650</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0">
         <v>2019</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D8" s="1">
         <v>43710</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0">
         <v>2019</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D9" s="1">
         <v>43752</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0">
         <v>2019</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D10" s="1">
         <v>43780</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0">
         <v>2019</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D11" s="1">
         <v>43797</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0">
         <v>2020</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D12" s="1">
         <v>43831</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0">
         <v>2020</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>H10</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D13" s="1">
         <v>44190</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0">
         <v>2020</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D14" s="1">
         <v>43850</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0">
         <v>2020</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D15" s="1">
         <v>43878</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0">
         <v>2020</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D16" s="1">
         <v>43976</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0">
         <v>2020</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D17" s="1">
         <v>44016</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0">
         <v>2020</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D18" s="1">
         <v>44081</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0">
         <v>2020</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D19" s="1">
         <v>44116</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0">
         <v>2020</v>
       </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D20" s="1">
         <v>44146</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0">
         <v>2020</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D21" s="1">
         <v>44161</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0">
         <v>2021</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D22" s="1">
         <v>44197</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0">
         <v>2021</v>
       </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>H10</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D23" s="1">
         <v>44555</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0">
         <v>2021</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D24" s="1">
         <v>44214</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0">
         <v>2021</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D25" s="1">
         <v>44242</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0">
         <v>2021</v>
       </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D26" s="1">
         <v>44347</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0">
         <v>2021</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D27" s="1">
         <v>44381</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0">
         <v>2021</v>
       </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D28" s="1">
         <v>44445</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0">
         <v>2021</v>
       </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D29" s="1">
         <v>44480</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0">
         <v>2021</v>
       </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D30" s="1">
         <v>44511</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0">
         <v>2021</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D31" s="1">
         <v>44525</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0">
         <v>2022</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D32" s="1">
         <v>44562</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0">
         <v>2022</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>H10</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D33" s="1">
         <v>44889</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0">
         <v>2022</v>
       </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>H11</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D34" s="1">
         <v>44920</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0">
         <v>2022</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D35" s="1">
         <v>44578</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0">
         <v>2022</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D36" s="1">
         <v>44613</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0">
         <v>2022</v>
       </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D37" s="1">
         <v>44711</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0">
         <v>2022</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D38" s="1">
         <v>44731</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0">
         <v>2022</v>
       </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D39" s="1">
         <v>44746</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0">
         <v>2022</v>
       </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D40" s="1">
         <v>44809</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0">
         <v>2022</v>
       </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D41" s="1">
         <v>44844</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0">
         <v>2022</v>
       </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D42" s="1">
         <v>44876</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0">
         <v>2023</v>
       </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D43" s="1">
         <v>44927</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0">
         <v>2023</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>5</v>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>H10</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D44" s="1">
         <v>45253</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0">
         <v>2023</v>
       </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>H11</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D45" s="1">
         <v>45285</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0">
         <v>2023</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D46" s="1">
         <v>44942</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0">
         <v>2023</v>
       </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>H3</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D47" s="1">
         <v>44977</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0">
         <v>2023</v>
       </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D48" s="1">
         <v>45075</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0">
         <v>2023</v>
       </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>H5</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D49" s="1">
         <v>45096</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0">
         <v>2023</v>
       </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>5</v>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>H6</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D50" s="1">
         <v>45111</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0">
         <v>2023</v>
       </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D51" s="1">
         <v>45173</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0">
         <v>2023</v>
       </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>H8</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D52" s="1">
         <v>45208</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0">
         <v>2023</v>
       </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>Raytheon</t>
+        </is>
       </c>
       <c r="D53" s="1">
         <v>45240</v>
@@ -1204,45 +1315,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</oddHeader>
-    <evenHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</evenHeader>
-    <firstHeader>&amp;C&amp;"Arial,Regular"&amp;08&amp;K000000Raytheon Technologies - Unrestricted Content</firstHeader>
-  </headerFooter>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
-  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJjZGU1M2FjMS1iZjVmLTRhYWUtOWNmMS0wNzUwOWUyM2E0YjAiIG9yaWdpbj0idXNlclNlbGVjdGVkIj48ZWxlbWVudCB1aWQ9ImRlY2VjYmQ2LWRhM2ItNDZmZS04ZjAwLWY5ZDlkZWVhMmVlMSIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjxlbGVtZW50IHVpZD0iYTRhOWYzODItOGNlYy00MGJiLWE5YzMtYzE4NzZkZWQ5ZGVlIiB2YWx1ZT0iIiB4bWxucz0iaHR0cDovL3d3dy5ib2xkb25qYW1lcy5jb20vMjAwOC8wMS9zaWUvaW50ZXJuYWwvbGFiZWwiIC8+PGVsZW1lbnQgdWlkPSJiYmE5NGM2NS1hYzNkLTRmMzQtYjJlMS04ZGUxMWVmNmYwMWMiIHZhbHVlPSIiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDA4LzAxL3NpZS9pbnRlcm5hbC9sYWJlbCIgLz48ZWxlbWVudCB1aWQ9ImJjMmI3YzAxLTZkYjEtNGU3ZC04OGQxLWZjNjE2NzRmODZmZCIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjxlbGVtZW50IHVpZD0iOTJlOTkzYTMtYWYzMi00YWZiLWFhMTktM2E0OWNkYjgyYzdhIiB2YWx1ZT0iIiB4bWxucz0iaHR0cDovL3d3dy5ib2xkb25qYW1lcy5jb20vMjAwOC8wMS9zaWUvaW50ZXJuYWwvbGFiZWwiIC8+PC9zaXNsPjxVc2VyTmFtZT5VU1wxMDg5OTg1PC9Vc2VyTmFtZT48RGF0ZVRpbWU+NS8xLzIwMjMgOTo0MDowMyBQTTwvRGF0ZVRpbWU+PExhYmVsU3RyaW5nPk9yaWdpbiBKdXJpc2RpY3Rpb246IFVTIHwgVW5yZXN0cmljdGVkIENvbnRlbnQgfCBSYXl0aGVvbiBUZWNobm9sb2dpZXMgKENvcnBvcmF0ZSBPbmx5KSB8IE90aGVyIEluZm9ybWF0aW9uIChOb3QgUmVxdWlyaW5nIGFuIEV4cG9ydCBDb250cm9sIE1hcmtpbmcpIHwgTm8gbWFya2luZyBhcHBsaWVkIGJ5IHRoZSB0b29sPC9MYWJlbFN0cmluZz48L2l0ZW0+PC9sYWJlbEhpc3Rvcnk+</Value>
-</WrappedLabelHistory>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="cde53ac1-bf5f-4aae-9cf1-07509e23a4b0" origin="userSelected">
-  <element uid="dececbd6-da3b-46fe-8f00-f9d9deea2ee1" value=""/>
-  <element uid="a4a9f382-8cec-40bb-a9c3-c1876ded9dee" value=""/>
-  <element uid="bba94c65-ac3d-4f34-b2e1-8de11ef6f01c" value=""/>
-  <element uid="bc2b7c01-6db1-4e7d-88d1-fc61674f86fd" value=""/>
-  <element uid="92e993a3-af32-4afb-aa19-3a49cdb82c7a" value=""/>
-</sisl>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF208068-2E30-46F5-93A0-9760BEABD7C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF1B47FC-05F5-4EED-A2EA-596DCB798930}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>